--- a/Data/Solar_Generation.xlsx
+++ b/Data/Solar_Generation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Dailydata_40.802_0.482_SA_02_35" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">Latitude (decimal degrees):</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve">Gd(i): Diffuse irradiance on a fixed plane (W/m2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irradiance (W/m2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant power (MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized power</t>
   </si>
   <si>
     <t xml:space="preserve">PVGIS (c) European Union</t>
@@ -95,10 +104,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="h:mm"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -242,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,6 +314,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,18 +402,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.68359375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,10 +1060,361 @@
       <c r="A36" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="H45" s="16" t="n">
+        <v>2.995704</v>
+      </c>
+      <c r="I45" s="17" t="n">
+        <v>0.0327370449795054</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>241.21</v>
+      </c>
+      <c r="H46" s="16" t="n">
+        <v>29.958282</v>
+      </c>
+      <c r="I46" s="17" t="n">
+        <v>0.3273840223676</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>422.09</v>
+      </c>
+      <c r="H47" s="16" t="n">
+        <v>52.423578</v>
+      </c>
+      <c r="I47" s="17" t="n">
+        <v>0.572884714568799</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>592.51</v>
+      </c>
+      <c r="H48" s="16" t="n">
+        <v>73.589742</v>
+      </c>
+      <c r="I48" s="17" t="n">
+        <v>0.80418849588751</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>709.99</v>
+      </c>
+      <c r="H49" s="16" t="n">
+        <v>88.180758</v>
+      </c>
+      <c r="I49" s="17" t="n">
+        <v>0.963639078150873</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>736.78</v>
+      </c>
+      <c r="H50" s="16" t="n">
+        <v>91.508076</v>
+      </c>
+      <c r="I50" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>709.14</v>
+      </c>
+      <c r="H51" s="16" t="n">
+        <v>88.075188</v>
+      </c>
+      <c r="I51" s="17" t="n">
+        <v>0.962485409484513</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>620.74</v>
+      </c>
+      <c r="H52" s="16" t="n">
+        <v>77.095908</v>
+      </c>
+      <c r="I52" s="17" t="n">
+        <v>0.842503868183175</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>470.47</v>
+      </c>
+      <c r="H53" s="16" t="n">
+        <v>58.432374</v>
+      </c>
+      <c r="I53" s="17" t="n">
+        <v>0.638548820543446</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>284.9</v>
+      </c>
+      <c r="H54" s="16" t="n">
+        <v>35.38458</v>
+      </c>
+      <c r="I54" s="17" t="n">
+        <v>0.386682591818453</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="H55" s="16" t="n">
+        <v>2.37843</v>
+      </c>
+      <c r="I55" s="17" t="n">
+        <v>0.0259914764244415</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1051,8 +1422,8 @@
     <mergeCell ref="F4:F5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
